--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/2_fold/15.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/2_fold/15.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-10.87659893847973</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.561326612660651</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.173698490578491</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-17.03556598270676</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-3.906126873513242</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-20.78446414144382</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-11.20651267761508</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7.429722528080769</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.966311858255574</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-17.21443648804448</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-3.883991239775634</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-20.64491919036267</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-11.63264450392101</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.25973661279782</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.698441703424157</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-17.66908022535081</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-3.870975102775445</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-20.48710816474979</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-12.15243982630481</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.05238790476733</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.371693864158957</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-18.06531735179608</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-3.794606255176553</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-20.37474759172361</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-12.73562718303003</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.819751827162526</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.005097243352794</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-18.44778242948821</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-3.798189772561064</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-20.19311809051986</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-13.36170161368728</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.570007901548944</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.61154143662046</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-18.80874633215171</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-3.724177630223136</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-19.87138624426475</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-14.01693853912272</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.308630924703833</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.199653833225062</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-19.29716813716287</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-3.683778980356007</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-19.62434780076139</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-14.69658585689914</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.03751653180963</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.7724216458952466</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-19.7572152024028</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-3.600465928819447</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-19.20442650312066</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-15.40336020931357</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.755581041951546</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.3281371697664687</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-20.25844551113974</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-3.506044470411345</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-18.78457961170078</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-16.1460477998862</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.459319598756396</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-0.1387226787519528</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-20.67966835691517</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-3.399841142433226</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-18.38680003893728</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-16.93371142405308</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.145117012083203</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-0.6338548513233219</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-21.17662085798753</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-3.283141571094235</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-17.92883888723173</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.77417460559363</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.809852442866948</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-1.162177282719815</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-21.91870835108524</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-3.157204046479223</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-17.51243426255524</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.66738783905688</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.453545639056215</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-1.7236588533864</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-22.48780213286988</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-2.97769683029257</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-17.1172510752876</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-19.61159080891599</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.076898798486376</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-2.31719301374472</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-23.24572997396049</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-2.786764770886506</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-16.79372891092914</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-20.59086060471118</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.686263642247918</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-2.932770484442881</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-23.94017597995109</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-2.550300668818165</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-16.54831761399219</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-21.59636996594711</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.285161404527337</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-3.564842373120216</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-24.78379703030689</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-2.303269083792311</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-16.35100537002963</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-22.6030956467893</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.883573971407622</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-4.197678850831135</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-25.5944166634756</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-2.021300275185984</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-16.32619285343568</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-23.60266791093353</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.484840068603501</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-4.826018628882075</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-26.262431632595</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-1.751067775942521</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-16.35854520040876</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-24.5690581591748</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.099342622210288</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-5.433499904495872</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-27.0379566300689</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-1.491576716811159</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-16.48565452231629</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-25.50114549485121</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.727528762982475</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-6.019418072327807</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-27.67923322467906</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-1.226718665277059</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-16.50559669487551</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-26.3758279541083</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.378613968920563</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-6.569251037916518</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-28.2417296302742</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-1.004441183349062</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-16.68463633744488</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-27.20050494700901</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.049646581841664</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-7.087650134480667</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-28.81628488495098</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-0.8304508940650541</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-16.77820803433497</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-27.9529204126945</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.7495046452105911</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-7.560625009504508</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-29.11967904883537</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-0.6652363290463039</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-16.90189336471126</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-28.64571274080833</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.4731466481646442</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-7.996120264122365</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-29.36752193464451</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-0.5815778483027763</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-16.89639513660237</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-29.25729871303411</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.229182234231436</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-8.38056850046515</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-29.66405291681462</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-0.5067456222360773</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-16.8271412202062</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-29.80541731876297</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.01053524021051774</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-8.725120600821912</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-29.74445701145763</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-0.4907548178924356</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-16.78915097028862</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-30.27300707617573</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-0.175988431536261</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-9.019051570028189</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-29.67674513062329</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-0.4363087136086325</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-16.60989724666278</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-30.6785859021637</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-0.3377756619165979</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-9.274001930942438</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-29.63074000877817</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-0.4647357977705032</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-16.38469702897794</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-31.0094874759727</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-0.4697737982212762</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-9.482009524692407</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-29.5673557741443</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-0.5033749952740861</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-16.16807832876409</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-31.28216846020905</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-0.5785474776891765</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.653419151849745</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-29.39780715162516</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-0.5376031363577617</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-15.89795633427226</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-31.48653589346102</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-0.6600705723064397</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-9.781886289501195</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-29.10893053792671</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-0.5845384334003817</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-15.58221157805072</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-31.63715499688773</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-0.720153214753112</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-9.876566761751386</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-28.90108100057</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-0.6278024061137942</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-15.31704608216512</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-31.72635408353259</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.7557351343604133</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-9.93263807976936</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-28.61170600151257</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-0.7234117433775104</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-14.97488972828758</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-31.76894539505148</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-0.7727250014032048</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-9.959411346882357</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-28.34795631632934</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-0.7241481619985992</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-14.69254422762016</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-31.75989425156742</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.7691144592786406</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-9.953721719736942</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-28.01949752209961</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-0.8410788478429718</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-14.40752924060832</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-31.71484932641657</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>-0.7511458346466882</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.925406089855155</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-27.74388626537266</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-0.9168098525417082</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-14.15915344318817</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-31.62967539888475</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>-0.7171695692378095</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-9.871865021699477</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-27.47409781092313</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-0.99225838395609</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-13.90589424801034</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-31.51973410142304</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>-0.6733134878030297</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-9.802754970406822</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-27.06449565043456</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-1.029058605825458</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-13.74813739534773</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-31.37872588027281</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-0.6170646698200352</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-9.714115981952347</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-26.79037539657322</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-1.13753828742647</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-13.53446100428806</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-31.22079149735476</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>-0.554063929256484</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-9.614837061689093</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-26.42829428006335</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-1.182914597017021</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-13.36742295460404</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-31.03440849125861</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>-0.4797149040754888</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-9.497675090630214</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-26.01624587810446</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-1.263527170820455</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-13.23874326982495</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-30.83250631769437</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>-0.3991752127117756</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-9.370757636559027</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-25.67428291725205</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-1.356971155693254</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-13.16982352873645</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-30.6022191925266</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>-0.3073126356100592</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-9.22599715619517</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-25.20490773937656</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-1.389617115037582</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-13.05362320310288</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-30.35954202291117</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>-0.2105076136689408</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-9.073448186636945</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-24.84791430673959</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-1.46813309094453</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-12.96861866458853</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-30.09052053488932</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>-0.1031937238133021</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-8.904338950478513</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-24.46250460221815</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-1.487250153866337</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-12.95654658159922</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-29.81372472423961</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.007221378545182827</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-8.730342707817691</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-24.03663015975891</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-1.596570628381191</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-12.90373382926559</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-29.51634047502769</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1258493022824038</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-8.543404394452583</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-23.66638382978442</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-1.648490212086456</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-12.91450967756541</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-29.21485923516061</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.2461115341454917</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-8.353890677295995</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-23.23768935683562</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-1.664587047457655</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-12.78141130756587</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-28.89971731475752</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.3718230733377979</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-8.155789738100614</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-22.78927958972785</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-1.745941010086595</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-12.79228897490474</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-28.58292064544161</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.498194699365081</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-7.956648609414281</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-22.42582791348078</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-1.72761752313667</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-12.79993062432293</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-28.25820515040272</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.627725180834249</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-7.752529638329068</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-21.97369271581465</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-1.779481606225947</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-12.81105239628107</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-27.93311618678316</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.757404640611529</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-7.548175901661107</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-21.63048379156479</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-1.783013764831484</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-12.8359562889357</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-27.60482392184482</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.8883619117912548</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-7.341808542054746</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-21.19596651633858</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-1.833823336216997</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-12.85965401758924</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-27.27642867509052</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1.019360262883723</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-7.135376447187417</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-20.81385030839773</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-1.819936585076466</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-12.93224316020055</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-26.94817257838773</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1.150303106390499</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-6.929031823247011</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-20.47330359260709</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-1.808221813266076</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-12.98520341960358</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-26.61979534445826</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1.281294272085575</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-6.722611051397291</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-20.21240301039269</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-1.808706408196713</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-13.09270996574874</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-26.2966504916333</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1.410198217262838</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-6.519479399604037</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-19.85864908258909</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-1.804415465050212</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-13.11732276038146</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-25.97540971363097</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1.53834261837061</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-6.317544665726937</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-19.53046647691247</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-1.790542796155529</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-13.19824409435531</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-25.66577184922969</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1.66185856469827</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-6.122903623780223</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-19.21368443632249</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-1.786685089160691</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-13.3152602776736</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-25.36119930559624</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1.783353931632961</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-5.931446686316184</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-18.83829227751654</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-1.764988490146567</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-13.43499946760042</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-25.07260165541536</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1.898476841225932</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-5.750031705163298</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-18.68750994036864</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-1.761109245599257</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-13.48577844989757</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-24.79343150419009</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>2.009839078792389</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-5.574542931463164</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-18.45714376781438</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-1.745702440274589</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-13.67018708871856</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-24.53462267582975</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>2.113079092460263</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-5.411853461573981</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-18.26816434611203</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-1.745367779843858</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-13.77836198547904</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-24.2905918127945</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>2.210424108836853</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-5.258453548613784</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-18.11103590205979</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-1.729005866903762</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-13.88048648164962</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-24.07264358023146</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>2.29736464580095</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-5.121449402953046</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-18.01065278433868</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-1.715169646174802</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-14.10590078039094</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-23.87516466005488</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>2.376139881357297</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-4.997312444251289</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-17.90806431140409</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-1.714595587564662</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-14.10576893778908</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-23.70971372791141</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>2.44213900744612</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-4.893308556077829</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-17.78105910909084</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-1.776695806650332</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-14.15251431969297</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-23.57019085927672</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>2.497795311584137</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-4.805603273072593</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-17.81488286212024</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-1.776200442943458</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-14.26688190262357</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-23.46873869246228</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>2.538265040360062</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-4.741829562791082</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-17.70488090697083</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-1.792529221187442</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-14.30838229864391</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-23.4006262104428</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>2.56543541789005</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-4.699013466977078</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-17.77372869110251</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-1.837648736883125</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-14.32679196412814</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-23.37996301388485</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>2.57367806057183</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-4.686024402749532</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-17.85041358500415</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-1.883819450812962</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-14.31861119595189</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-23.40487389480094</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>2.563740997363637</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-4.701683598134736</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-17.94630708128311</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-1.936682544990015</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-14.32597610644342</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-23.49193134714843</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>2.529013385376106</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-4.756408666294299</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-18.06925044292069</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-1.953677330625849</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-14.4148223556236</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-23.64065675976339</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>2.469686144769957</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-4.849898748107471</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-18.19190723297685</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-2.080956810433396</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-14.28534508837193</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-23.86834899473675</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>2.378858681117946</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-4.993028058032417</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-18.37152116314171</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-2.111135891652188</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-14.22381767059316</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-24.17572610575133</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2.25624455955423</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-5.186247970830009</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-18.49355081828782</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-2.201582843261658</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-14.17414042251345</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-24.58018027808172</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2.094905958610978</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-5.440491364719527</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-18.86714463659012</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-2.245485487242628</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-14.13629115280379</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-25.08442685358897</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1.893759716123197</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-5.757465127100201</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-19.17590267290053</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-2.321187499082267</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-14.04912883388488</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-25.70437076045693</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1.646461284211695</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-6.14716723350963</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-19.73047682789356</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-2.404478184698951</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-13.93373131221308</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-26.44529250919211</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1.350904243322251</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-6.612917058562997</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-20.16873199331211</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-2.44151531964552</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-13.83063039756543</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-27.31789240905994</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1.002820191631738</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-7.161440909291922</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-20.6511524079589</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-2.52762162606432</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-13.79435149072732</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-28.33152909074602</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.598475928978415</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-7.798621701958479</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-21.33279821664638</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-2.622405909394848</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-13.67918763069643</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-29.48642402383494</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.137783110142054</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-8.524598654260688</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-22.08489079582561</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-2.690013943341733</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-13.69827217365746</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-30.79574710953973</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>-0.3845117981120934</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-9.347650480106472</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-22.92196223192215</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-2.76831951392837</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-13.59084786596692</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-32.24683580323617</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>-0.9633576493901627</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-10.25981739433158</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-23.8005865473236</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-2.798893726398297</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-13.55381706468657</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-33.85568431882761</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>-1.605134608049182</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-11.27115349824977</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-24.78173703748978</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-2.821563657110711</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-13.49986602771122</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-35.5957332059636</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>-2.299247989067913</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-12.36496329145853</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-25.93080601473009</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-2.843203927141445</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-13.54429306841819</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-37.48581200481536</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>-3.053208981291621</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-13.55308318590763</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-27.21238735250038</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-2.959855453171075</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-13.57545752660231</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-39.48500180975606</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>-3.850694847961478</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-14.80979120330504</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-28.5387195422957</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-2.907323705955141</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-13.53585122578283</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-41.61517782074456</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>-4.700431705404534</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-16.14883828370785</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-30.09826700761412</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-2.940483253089205</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-13.58198830419698</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-43.82159256628393</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-5.580580539312682</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-17.53580969261089</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-31.64827246991374</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-2.945519726898226</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-13.70039340363774</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-46.12930232191788</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-6.501136411469513</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-18.98645602172092</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-33.39048855232642</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-2.907066912060273</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-13.7354844216869</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-48.47208977728075</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-7.435684936900164</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-20.45915249653108</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-35.27922162385642</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-2.858070636919488</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-13.88394310748826</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-50.86988324304995</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-8.392175608980693</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-21.96642622564289</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-37.2538078032876</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-2.829976556453543</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-14.01317235400377</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-53.26577222409733</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-9.347906573481088</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-23.47250277917237</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-39.24000428497734</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-2.749832838600093</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-14.11919338647659</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-55.65830993395279</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-10.30230070072655</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-24.97647269462029</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-41.26624810686674</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-2.698749077604254</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-14.24232132288267</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-58.01839102500083</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-11.24374773574752</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-26.46004009852473</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-43.57082146229519</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-2.577838086389429</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-14.43205326992495</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-60.30959357585076</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-12.15771880916191</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-27.90030985581269</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.75311596989803</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-2.483132497962167</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-14.59016126773506</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-62.55752419144061</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-13.05442851164088</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-29.31337850001211</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.91950160152112</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-2.386491014914563</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-14.67257203149814</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-64.65274835575597</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-13.890222919164</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-30.63045454703508</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-50.11303573727179</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-2.286390269592868</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-14.80163157961524</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-66.75775313432355</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-14.72991885800456</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-31.953678772843</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-52.37400348869802</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-2.125580962422206</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-14.92866388455733</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-12.16795154532991</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>7.046200209802246</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>2.361943063302384</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-12.30262755914365</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>6.992477338001648</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>2.27728455519446</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-12.41384782179998</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>6.948111071558846</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>2.207370535309088</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-12.46944084329801</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>6.925934763526169</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>2.172424280753737</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-12.4648999842274</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>6.927746132773054</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>2.175278704073529</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-12.39868597970799</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>6.954159199030867</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>2.216901400496792</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-12.26411467762093</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>7.007840300849497</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>2.301494085906886</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-12.06244956072283</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>7.088285429235556</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>2.42826252410565</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-11.78678241232066</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>7.19825030311227</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>2.601549279907393</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-11.44212337822966</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>7.335736352625117</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>2.818204932282259</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-11.0261940133878</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>7.50165245982745</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>3.079661731519626</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-10.55048444665496</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>7.691415160283167</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>3.378696883153741</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-10.01733048132264</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>7.904092691481424</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>3.71384208101564</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-9.439261222498503</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>8.134687136655801</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>4.077221421176303</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-8.827201689413364</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>8.378840456160363</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>4.461967341974667</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-8.201854847913056</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>8.628294143164295</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>4.855065779864558</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-7.591883103383928</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>8.87161463435916</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>5.238499298703646</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-7.030585820691445</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>9.095518662301483</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>5.591335629481128</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-6.557830335164079</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>9.284102966386559</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>5.888513820097436</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-6.202658194817814</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>9.425782741594013</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>6.111778102071198</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-5.991552393137879</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>9.509993801892387</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>6.244481036447231</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-5.926713301341265</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>9.535858409238683</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>6.285239450830996</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-6.007652713151814</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>9.503571311327338</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>6.234360235913849</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-6.207592024186609</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>9.423814614715589</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>6.108676654220217</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-6.50644862019857</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>9.304599365172201</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>5.920812810911216</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-6.863821891362007</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>9.162041548913795</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>5.696164879051663</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-7.258038894310782</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>9.004786601196651</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>5.44835665845362</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-7.655569584341983</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>8.846209808696049</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>5.19846542547059</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-8.044575786233354</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>8.691033473118202</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>4.953932759524594</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-8.40447648566847</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>8.547467454276577</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>4.72769606437475</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-8.734337346224478</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>8.415884463201461</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>4.520342671984555</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-9.022828510922743</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>8.300804031149731</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>4.338994628527831</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-9.275004170710599</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>8.200210018464213</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>4.180474825823415</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-9.482780258880792</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>8.117327195963728</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>4.049864978183311</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-9.653505039805948</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>8.049224307712876</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>3.942545903012544</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-9.780638251989229</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>7.998510293640804</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>3.862628865303884</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-9.873683619215035</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>7.961394075291597</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>3.804139742017352</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-9.927473871207786</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>7.939936900178551</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>3.770326723978715</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-9.952838201471859</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>7.929818953971965</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>3.754382486408075</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-9.944021932103968</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>7.933335803747945</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>3.759924469650877</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-9.911254977372961</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>7.946406690377724</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>3.780522061042344</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-9.848070607601562</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>7.97161122161463</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>3.820240302836937</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-9.765323276763487</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>8.00461950661335</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>3.872255991305061</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-9.657271863991728</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>8.047721704486827</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>3.940178044721803</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-9.537431320314115</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>8.095526640066598</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>4.015510847878724</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-9.40326444192522</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>8.149046415440569</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>4.099849309051253</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-9.268407741767316</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>8.202841363842106</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>4.184621398159232</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-9.132057773934772</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>8.257231983481429</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>4.27033216825398</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-9.004375454009994</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>8.30816503911826</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>4.350594379842304</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-8.886450910022578</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>8.355205673744866</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>4.424722769008092</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-8.782780491383951</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>8.396560273218979</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>4.489890891588615</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-8.69443953100377</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>8.431799882373213</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>4.545422784008233</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-8.620143316435525</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>8.461436978820391</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>4.592126027631946</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-8.560823780759945</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>8.485099810234288</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>4.629414801257923</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-8.510186744979819</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>8.505299153120546</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>4.661245680289447</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-8.471054306060253</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>8.520909260219707</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>4.685844670144736</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-8.434719532648408</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>8.535403365878402</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>4.708685023243843</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-8.407702438710116</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>8.546180606999297</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>4.725668202367268</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-8.378894171213235</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>8.557672355364174</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>4.743777328694938</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-8.356203754283257</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>8.566723665432775</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>4.758040721197002</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-8.327036189147305</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>8.578358739252984</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>4.776375705130854</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-8.299700828648927</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>8.589262938345991</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>4.793558949369027</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-8.266378784110783</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>8.602555252813602</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>4.814505475018403</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-8.238730906140347</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>8.613584116541469</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>4.831885170444822</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-8.213796233341585</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>8.623530670439408</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>4.847559321613432</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-8.204258358027166</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>8.627335372095304</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>4.853554912600814</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-8.207778560523698</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>8.625931147377941</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>4.851342082838817</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-8.236134293682259</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>8.614619917009954</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>4.833517423513585</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-8.285239516186836</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>8.595031621376243</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>4.802649455567232</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-8.363024403379807</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>8.564002877620347</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>4.753753202131874</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-8.459832755415627</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>8.52538558758947</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>4.692898634019442</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-8.577400855127239</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>8.478487140198666</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>4.618994308810989</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-8.699721546337607</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>8.429692862536546</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>4.54210246344555</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-8.824787820570526</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>8.379803359373154</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>4.463484720824961</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-8.933292468478935</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>8.336520363951161</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>4.395277759877885</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-9.022084338873322</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>8.301100884750282</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>4.339462421520031</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-9.070919522071906</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>8.281620309018626</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>4.308764202619025</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-9.079184543667774</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>8.278323354475273</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>4.303568738497598</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-9.030399064812009</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>8.297784102919488</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>4.334235712818443</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-8.928797822875815</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>8.33831329843658</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>4.398103133011963</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-8.765719197363726</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>8.403366100666979</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>4.500615768701035</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-8.548459598213087</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>8.490031938644346</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>4.637187033437579</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-8.27762366030907</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>8.598069620774851</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>4.807436848498747</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-7.96011727790226</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>8.724724354568082</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>5.00702410897766</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-7.602369848826193</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>8.867431424112239</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>5.231907239739995</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-7.206632946007706</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>9.02529266677039</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>5.480670882553172</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-6.782829700234412</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>9.194349700733724</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>5.747077271504391</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-6.327589755357709</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>9.375946976332829</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>6.033245041644195</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-5.853526769827611</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>9.565052848090104</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>6.33124513808061</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-5.353311195106633</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>9.76459110610956</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>6.64568497847263</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-4.843524988623986</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>9.967947132480058</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>6.96614100083833</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-4.313928783155998</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>10.17920545715686</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>7.299049760051719</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-3.784114533609938</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>10.39055076060382</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>7.632095583660087</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-3.241952354635501</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>10.60682170901829</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>7.972903422597139</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-2.720976465278718</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>10.81464135056058</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>8.30039337648115</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-2.223398103950278</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>11.01312761221494</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>8.61317544170555</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-1.810331690890197</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>11.17790167498643</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>8.872832564669716</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-1.48809183570906</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>11.30644461250522</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>9.075395327109938</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-1.348289973746468</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>11.36221220834518</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>9.163275987736201</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-1.364963087311806</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>11.35556122783854</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>9.152795124218011</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-1.681696788359802</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>11.22921472013848</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>8.953693577929974</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-33.01956353780029</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.271602242062535</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-10.74556073740594</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-32.24754207422077</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-0.9636393840843247</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-10.26026136238635</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-31.29079577615433</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-0.5819889530891884</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-9.658842357335418</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-30.26740899169473</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-0.1737553302854503</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-9.015532565663545</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-29.21906662195331</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.2444331885004236</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-8.356535477055179</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-28.20653283842412</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.6483375000844045</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-7.720047975717298</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-27.27513528734221</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.019876201113731</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-7.134563412452595</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-26.45083785532639</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.348692179636775</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-6.616402911146367</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-25.7536746200752</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1.626793751333789</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-6.178160066465157</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-25.17713814108286</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1.856776763691953</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-5.815744244975292</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-24.7235711866621</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>2.037706675821921</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-5.530628131118356</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-24.36792033782696</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>2.179577410013456</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-5.307062928844537</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-24.10280514197632</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>2.285333062232063</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-5.1404092217598</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-23.89408263068965</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>2.368593417199655</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-5.009204444355958</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-23.72524110067141</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>2.435945068135299</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-4.903069197007662</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-23.55929707168408</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>2.502140892788163</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-4.798755343889654</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-23.37647700450083</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>2.57506864550177</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-4.683833067074049</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-23.14782120169883</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2.666280480724215</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-4.540098050070881</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-22.86462285464297</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>2.779249583849475</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-4.362077117601515</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-22.51485784380872</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>2.918772430607997</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-4.142211804045893</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-22.10350908026844</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>3.08286131520754</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-3.883634410438724</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-21.632136233519</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>3.270894078422717</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-3.587325358527054</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-21.1161919329415</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>3.476706596415039</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-3.262998304905709</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-20.56582021273317</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>3.696252368005214</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-2.917029877283038</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-19.99922263583039</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>3.922270707310799</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-2.5608617356829</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-19.42458970860469</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>4.151494384248878</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-2.199642503311662</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-18.85409979587232</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>4.379065393943619</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-1.841027605714988</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-18.29241838377467</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>4.60312265284522</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-1.487949807868201</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-17.7495462974364</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>4.819676786521985</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-1.146695715016918</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-17.23254701203546</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>5.02591014273795</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-0.8217054888030746</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-16.75345796638107</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.217020932639694</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-0.5205459674643726</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-16.32353377515264</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.388519639464234</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-0.2502918992140193</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-15.95374636814004</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.536029510731205</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-0.01784033409655829</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-15.65243670251058</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.656223300853922</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>0.1715655300090328</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-15.42460929749552</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.747104684447698</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>0.3147798089922967</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-15.27307642307684</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.807551834281146</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>0.41003468559811</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-15.19479283474486</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.838779512179799</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>0.4592444268864626</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-15.18621199067442</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>5.842202449738483</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>0.4646384197493226</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-15.23853257974731</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5.821331529819647</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>0.4317492445442668</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-15.34398705744357</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>5.779265261108202</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>0.3654596469963878</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-15.49447165163399</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>5.719236275005017</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>0.270863728416503</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-15.6842243417332</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>5.643543067615341</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>0.1515835448235936</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-15.90876265565</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>5.553973717355557</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>0.01043681697675852</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-16.16303869282119</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.452541854620113</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-0.1494033011327663</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-16.44293025318102</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5.340891843682926</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-0.32534555885977</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-16.74083333434251</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>5.222056955531453</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-0.5126100144796515</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-17.0531294168756</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>5.097480633953081</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-0.7089220353549136</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-17.37180227627729</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>4.970360587204111</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-0.909242553370436</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-17.6947776936597</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>4.841524230592187</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-1.112267696577776</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-18.01486128902797</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>4.713841434877528</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-1.313475015433942</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-18.33224368477968</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.587236159922498</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-1.512984336828168</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-18.64077533768031</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.464161486372008</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-1.706930004649639</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-18.94188358854881</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.344048041509564</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-1.896209257692936</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-19.22960187318455</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.229275914814816</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-2.077071462051914</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-19.50587828911433</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.11906800136223</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-2.250741208695639</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-19.76444621533141</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>4.015924084650242</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-2.413279245412204</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-20.00764991748469</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>3.918909026495333</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-2.566159197881658</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-20.23003085398719</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>3.830200263855954</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-2.705949779610504</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-20.43578327142008</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>3.748124692776922</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-2.835287530307208</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-20.62116255850053</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>3.674176055656704</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-2.951818554904112</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-20.7918823995957</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>3.606075137926403</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-3.059134524854989</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-20.94667470248663</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>3.544327787314813</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-3.156438306413739</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-21.09375500530922</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>3.485656788454842</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-3.248894257970512</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-21.23499908839205</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>3.429313884078817</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-3.337681511277559</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-21.38009684828913</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>3.371433730569927</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-3.428891219189446</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-21.53236256434314</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>3.310694246889415</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-3.524606766391084</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-21.70000854528064</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>3.243819505896212</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-3.62999048123794</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-21.88414409402154</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>3.170367001632004</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-3.745739681148164</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-22.08907170794174</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>3.088620448409366</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-3.874558953216872</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-22.31220028460306</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>2.999613448724892</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-4.014819508021505</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-22.55321176778233</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2.90347287664634</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-4.166321412666928</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-22.80631681698849</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>2.802508126313053</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-4.325425437604961</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-23.06859733621825</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>2.697883239435556</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-4.490297242427403</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-23.33394265394269</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>2.592035790559368</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-4.65709560611406</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-23.59895184996252</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>2.486322422153294</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-4.823682680787568</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-23.85728314852139</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>2.383272897285757</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-4.986071971309805</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-24.10538567095747</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>2.284303677535363</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-5.142031364615736</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-24.33739250491825</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>2.191755100808291</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-5.287872868813552</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-24.55081358827435</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>2.106620464164367</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-5.422031209293491</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-24.74191969103336</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>2.030387374335668</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-5.542162159800185</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-24.91049432313035</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>1.963142190189478</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-5.648129632804777</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-25.05426386461581</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1.905791869019916</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-5.738504411125384</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-25.17159804234461</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1.858986734167389</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-5.812261690950492</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-25.25983882390419</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>1.823787086798364</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-5.867730610096276</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-25.31704605846612</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>1.800966861864412</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-5.903691572957054</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-25.34234615031053</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>1.790874540654339</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-5.919595429701011</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-25.33521759856363</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>1.793718152228351</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-5.915114360364514</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-25.29657801600917</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>1.809131656691533</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-5.890825184286751</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-25.22588718858829</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>1.837330547878368</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-5.846388318233946</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-25.12339281510609</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>1.878216017613776</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-5.7819594678192</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-24.98635242662326</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>1.932882049177117</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-5.695814693327051</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-24.81486430755734</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2.001289436469156</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-5.58801577719315</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-24.60738781862159</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2.084052747478264</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-5.457594260225304</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-24.36790525393207</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>2.179583427047433</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-5.30705344697764</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-24.09861972473138</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2.28700264412504</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-5.137778232248515</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-23.80653207688322</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2.403517729592207</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-4.954169408350762</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-23.49970412426865</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.525912789383252</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-4.761294701277215</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-23.19275718232826</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>2.648355314555218</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-4.568345196483427</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-22.9043711340039</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>2.763393815209376</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-4.387063230089272</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-22.65747381317296</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>2.861882274581627</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.231861436945187</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-22.48147929863084</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>2.932087283436667</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-4.121229761605278</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>